--- a/RL.xlsx
+++ b/RL.xlsx
@@ -238,23 +238,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>222253</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>582086</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>264584</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>293159</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4DAAF64-CB9A-4F5E-96A7-092E8B8B5621}"/>
+        <xdr:cNvPr id="37" name="Rectangle: Rounded Corners 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DABA36E-1D4F-4496-BB5A-E29114628A93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -262,8 +262,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1449920" y="2225675"/>
-          <a:ext cx="2201333" cy="971550"/>
+          <a:off x="4561417" y="4159250"/>
+          <a:ext cx="1870075" cy="971550"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -292,74 +292,6 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="de-DE" sz="1400"/>
-            <a:t>Glance at AlphaGo</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400" baseline="0"/>
-            <a:t> Master and AlphaGo Zero</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>264584</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>293159</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Rectangle: Rounded Corners 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DABA36E-1D4F-4496-BB5A-E29114628A93}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4561417" y="4159250"/>
-          <a:ext cx="1870075" cy="971550"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400"/>
             <a:t>MDP</a:t>
           </a:r>
         </a:p>
@@ -400,8 +332,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>182032</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="38" name="Rectangle: Rounded Corners 37">
@@ -481,7 +413,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="38" name="Rectangle: Rounded Corners 37">
@@ -873,15 +805,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>232834</xdr:colOff>
+      <xdr:colOff>220928</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>103718</xdr:rowOff>
+      <xdr:rowOff>44187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
+      <xdr:colOff>3969</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>35719</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -896,8 +828,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4529667" y="8485718"/>
-          <a:ext cx="2238375" cy="1229782"/>
+          <a:off x="4471459" y="8426187"/>
+          <a:ext cx="2211916" cy="1325032"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -945,7 +877,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t> can observe State transition and Reward</a:t>
+            <a:t> can observe  Transition and Reward</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400"/>
         </a:p>
@@ -974,7 +906,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>105833</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>105833</xdr:rowOff>
     </xdr:to>
@@ -991,8 +923,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9738783" y="8447617"/>
-          <a:ext cx="2643717" cy="1373716"/>
+          <a:off x="9639564" y="8447617"/>
+          <a:ext cx="2838186" cy="1373716"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1021,14 +953,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>V(s)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>Monte-Carlo(Q(s,a)) + </a:t>
+            <a:t>* Monte-Carlo(Q(s,a)) + </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="el-GR" sz="1400"/>
@@ -1040,43 +965,27 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="de-DE" sz="1400"/>
-            <a:t>TD(</a:t>
+            <a:t>* TD(</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="el-GR" sz="1400"/>
-            <a:t>λ) + ε-</a:t>
+            <a:t>λ)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t> (Q(s,a), SARSA, Q-learning)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1400"/>
+            <a:t> + ε-</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="de-DE" sz="1400"/>
             <a:t>greedy (eligibility)</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400"/>
-            <a:t>Q(s,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400" baseline="0"/>
-            <a:t> a)</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400"/>
-            <a:t>SARSA,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400" baseline="0"/>
-            <a:t> Q-learning</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1400"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1832,35 +1741,14 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>Value function -&gt; </a:t>
-          </a:r>
+            <a:t>Value function -&gt; V(s), Q(s,a)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>V(s), Q(s,a)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>(Linear</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t> function, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>NN,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>DQN)</a:t>
+            <a:t>(DQN)</a:t>
           </a:r>
           <a:endParaRPr lang="de-DE" sz="1400"/>
         </a:p>
@@ -1927,11 +1815,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>Policy function -&gt; </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>P = </a:t>
+            <a:t>Policy function -&gt; P = </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="el-GR" sz="1400"/>
@@ -1941,17 +1825,16 @@
             <a:rPr lang="en-US" sz="1400"/>
             <a:t>a|s)</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>(Linear</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t> function, NN</a:t>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="de-DE" sz="1400"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>Policy Gradient</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
@@ -2146,15 +2029,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>100545</xdr:colOff>
+      <xdr:colOff>100546</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>93135</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>232834</xdr:colOff>
+      <xdr:colOff>220929</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>147109</xdr:rowOff>
+      <xdr:rowOff>135203</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2172,8 +2055,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="3783545" y="8094135"/>
-          <a:ext cx="746122" cy="1006474"/>
+          <a:off x="3743859" y="8094135"/>
+          <a:ext cx="727601" cy="994568"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -2536,8 +2419,8 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>146047</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="145" name="Rectangle: Rounded Corners 144">
@@ -2643,7 +2526,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="145" name="Rectangle: Rounded Corners 144">
@@ -2731,8 +2614,8 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>146047</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="146" name="Rectangle: Rounded Corners 145">
@@ -2821,7 +2704,7 @@
                           <a:schemeClr val="lt1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2833,7 +2716,7 @@
                           <a:schemeClr val="lt1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2847,7 +2730,7 @@
                               <a:schemeClr val="lt1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2860,7 +2743,7 @@
                               <a:schemeClr val="lt1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2874,7 +2757,7 @@
                               <a:schemeClr val="lt1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2900,7 +2783,7 @@
                           <a:schemeClr val="lt1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2916,7 +2799,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="146" name="Rectangle: Rounded Corners 145">
@@ -3449,7 +3332,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="de-DE" sz="1400"/>
-            <a:t>AlphaGo Master</a:t>
+            <a:t>AlphaGo Fan</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3512,7 +3395,14 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="de-DE" sz="1400"/>
-            <a:t>Training pipeline</a:t>
+            <a:t>Training</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400"/>
+            <a:t>(NN)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3989,13 +3879,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>148167</xdr:rowOff>
+      <xdr:rowOff>148168</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>74083</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>105832</xdr:rowOff>
+      <xdr:rowOff>74084</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4010,8 +3900,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4923367" y="15959667"/>
-          <a:ext cx="2516716" cy="1100665"/>
+          <a:off x="4923367" y="15959668"/>
+          <a:ext cx="2516716" cy="1068916"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4194,7 +4084,15 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="de-DE" sz="1400" baseline="0"/>
-            <a:t>Reduce Breath -&gt; SL Policy NN</a:t>
+            <a:t>Reduce Brea</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1400" baseline="0"/>
+            <a:t>d</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" baseline="0"/>
+            <a:t>th -&gt; SL Policy NN</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4271,7 +4169,14 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="de-DE" sz="1400" baseline="0"/>
-            <a:t>Reduce Breath / Reduce Depth -&gt; same NN</a:t>
+            <a:t>Reduce Breadth / Reduce Depth -&gt; same NN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" baseline="0"/>
+            <a:t>Do not use Rollout to evaluate</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4835,7 +4740,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>(Deep</a:t>
+            <a:t>(</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="de-DE" sz="1400" i="1" baseline="0">
@@ -4845,7 +4750,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t> Mind, UCL)</a:t>
+            <a:t>UCL, Deep Mind)</a:t>
           </a:r>
           <a:endParaRPr lang="de-DE" sz="1400" i="1">
             <a:solidFill>
@@ -4862,15 +4767,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>237067</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>169331</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>84666</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>158749</xdr:rowOff>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>63498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>243417</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>148167</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4885,8 +4790,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13741400" y="17695331"/>
-          <a:ext cx="2302933" cy="1513418"/>
+          <a:off x="14101233" y="16636998"/>
+          <a:ext cx="3329517" cy="1227669"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst/>
@@ -4924,7 +4829,169 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Geoffrey Hinton </a:t>
+            <a:t>Geoffrey Hinton (University</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" i="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> of Toronto)</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1400" i="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Yann</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" i="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> Lecun (NYU)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" i="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Li Feifei (Stanford)</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1400" i="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>He</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" i="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> Kaiming (Facebook)</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1400" i="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>29631</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>131234</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>78316</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="200" name="Rectangle: Folded Corner 199">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D8BBD94-C992-415E-8372-396357D4852B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1532467" y="5173131"/>
+          <a:ext cx="2281767" cy="620185"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Richard Sutton</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4947,7 +5014,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t> of Toronto)</a:t>
+            <a:t> of Alberta)</a:t>
           </a:r>
           <a:endParaRPr lang="de-DE" sz="1400" i="1">
             <a:solidFill>
@@ -4957,6 +5024,65 @@
             <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
         </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>103716</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>146049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="201" name="Rectangle: Folded Corner 200">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75FB6280-934A-419D-AE58-955F22C1FB1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1331383" y="18434049"/>
+          <a:ext cx="2965450" cy="1102784"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
@@ -4967,7 +5093,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Yann</a:t>
+            <a:t>David Silver (Deep</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="de-DE" sz="1400" i="1" baseline="0">
@@ -4977,7 +5103,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t> Lecun (NYU)</a:t>
+            <a:t> Mind)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4990,249 +5116,36 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Li Feifei (Stanford)</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1400" i="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400" i="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>He</a:t>
-          </a:r>
+            <a:t>Aja Huang (Deep Mind)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="de-DE" sz="1400" i="1" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t> Kaiming (Facebook)</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1400" i="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>29631</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>131234</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>78316</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="200" name="Rectangle: Folded Corner 199">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D8BBD94-C992-415E-8372-396357D4852B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1532467" y="5173131"/>
-          <a:ext cx="2281767" cy="620185"/>
-        </a:xfrm>
-        <a:prstGeom prst="foldedCorner">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400" i="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Richard Sutton</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400" i="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>(University</a:t>
-          </a:r>
+            <a:t>Demis Hassabis (Deep Mind)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="de-DE" sz="1400" i="1" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t> of Alberta)</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1400" i="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>71966</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>167215</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>512233</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="201" name="Rectangle: Folded Corner 200">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75FB6280-934A-419D-AE58-955F22C1FB1C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1299633" y="18455215"/>
-          <a:ext cx="2281767" cy="620185"/>
-        </a:xfrm>
-        <a:prstGeom prst="foldedCorner">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400" i="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>David Silver </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400" i="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>(Deep</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400" i="1" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> Mind, UCL)</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1400" i="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
+            <a:t>Fan Hui (Deep Mind)</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5824,8 +5737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5839,7 +5752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S82" sqref="S82"/>
     </sheetView>
   </sheetViews>
@@ -5854,7 +5767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
